--- a/mpcereform/spreadsheets/author_person.xlsx
+++ b/mpcereform/spreadsheets/author_person.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="21075" windowHeight="8250"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="14400" windowHeight="13440"/>
   </bookViews>
   <sheets>
-    <sheet name="author_person.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="author_person" sheetId="1" r:id="rId1"/>
     <sheet name="drop_down" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="632">
   <si>
     <t>person_code</t>
   </si>
@@ -1470,13 +1470,454 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>See CERL authority file cnp02153493 - it gives Arnay as a variant of his surname</t>
+  </si>
+  <si>
+    <t>Vinzenz like first name a typo</t>
+  </si>
+  <si>
+    <t>Very common name. Unlikely to be same.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both names very common. </t>
+  </si>
+  <si>
+    <t>This person was an STN author, so are same</t>
+  </si>
+  <si>
+    <t>Repecaud commissioned an edition from STN so almost certainly same person</t>
+  </si>
+  <si>
+    <t>No. Jean Racine the dramatist and Jean Racine the bookseller were definitely separate people</t>
+  </si>
+  <si>
+    <t>seem to be different people</t>
+  </si>
+  <si>
+    <t>Uncertain if same person. Need client code to get more info.</t>
+  </si>
+  <si>
+    <t>Unlikely to be same person: client is a Zurich printer</t>
+  </si>
+  <si>
+    <t>Unlikely to be same person: one wrote medical books other was a publisher at Bouillon</t>
+  </si>
+  <si>
+    <t>Cannot tell - if person has client code cl0341 they are one and the same - a prof of maths and author of a maths textbook. But cl0341 has name Chevalier de Pelt in FBTEE.</t>
+  </si>
+  <si>
+    <t>cl0795</t>
+  </si>
+  <si>
+    <t>cl1091</t>
+  </si>
+  <si>
+    <t>cl2403</t>
+  </si>
+  <si>
+    <t>cl1420</t>
+  </si>
+  <si>
+    <t>cl2797</t>
+  </si>
+  <si>
+    <t>client_code</t>
+  </si>
+  <si>
+    <t>cl0010</t>
+  </si>
+  <si>
+    <t>cl0051</t>
+  </si>
+  <si>
+    <t>cl0100</t>
+  </si>
+  <si>
+    <t>cl0107</t>
+  </si>
+  <si>
+    <t>cl0144</t>
+  </si>
+  <si>
+    <t>cl0176</t>
+  </si>
+  <si>
+    <t>cl0180</t>
+  </si>
+  <si>
+    <t>cl0182</t>
+  </si>
+  <si>
+    <t>cl0184</t>
+  </si>
+  <si>
+    <t>cl0188</t>
+  </si>
+  <si>
+    <t>cl0199</t>
+  </si>
+  <si>
+    <t>cl0219</t>
+  </si>
+  <si>
+    <t>cl0246</t>
+  </si>
+  <si>
+    <t>cl0256</t>
+  </si>
+  <si>
+    <t>cl0296</t>
+  </si>
+  <si>
+    <t>cl0301</t>
+  </si>
+  <si>
+    <t>cl0341</t>
+  </si>
+  <si>
+    <t>cl0349</t>
+  </si>
+  <si>
+    <t>cl0375</t>
+  </si>
+  <si>
+    <t>cl0377</t>
+  </si>
+  <si>
+    <t>cl0512</t>
+  </si>
+  <si>
+    <t>cl0517</t>
+  </si>
+  <si>
+    <t>cl0546</t>
+  </si>
+  <si>
+    <t>cl0547</t>
+  </si>
+  <si>
+    <t>cl0553</t>
+  </si>
+  <si>
+    <t>cl0558</t>
+  </si>
+  <si>
+    <t>cl0599</t>
+  </si>
+  <si>
+    <t>cl0642</t>
+  </si>
+  <si>
+    <t>cl0672</t>
+  </si>
+  <si>
+    <t>cl0692</t>
+  </si>
+  <si>
+    <t>cl0697</t>
+  </si>
+  <si>
+    <t>cl0703</t>
+  </si>
+  <si>
+    <t>cl0735</t>
+  </si>
+  <si>
+    <t>cl0742</t>
+  </si>
+  <si>
+    <t>cl0752</t>
+  </si>
+  <si>
+    <t>cl0756</t>
+  </si>
+  <si>
+    <t>cl0786</t>
+  </si>
+  <si>
+    <t>cl0841</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>cl0891</t>
+  </si>
+  <si>
+    <t>cl0906</t>
+  </si>
+  <si>
+    <t>cl0932</t>
+  </si>
+  <si>
+    <t>cl0933</t>
+  </si>
+  <si>
+    <t>cl0941</t>
+  </si>
+  <si>
+    <t>cl0945</t>
+  </si>
+  <si>
+    <t>cl0947</t>
+  </si>
+  <si>
+    <t>cl0951</t>
+  </si>
+  <si>
+    <t>cl0968</t>
+  </si>
+  <si>
+    <t>cl0980</t>
+  </si>
+  <si>
+    <t>cl0981</t>
+  </si>
+  <si>
+    <t>cl0989</t>
+  </si>
+  <si>
+    <t>cl0998</t>
+  </si>
+  <si>
+    <t>cl1003</t>
+  </si>
+  <si>
+    <t>cl1086</t>
+  </si>
+  <si>
+    <t>cl1090</t>
+  </si>
+  <si>
+    <t>cl1116</t>
+  </si>
+  <si>
+    <t>cl1117</t>
+  </si>
+  <si>
+    <t>cl1146</t>
+  </si>
+  <si>
+    <t>cl1158</t>
+  </si>
+  <si>
+    <t>cl1261</t>
+  </si>
+  <si>
+    <t>cl1363</t>
+  </si>
+  <si>
+    <t>cl1366</t>
+  </si>
+  <si>
+    <t>cl1370</t>
+  </si>
+  <si>
+    <t>cl1391</t>
+  </si>
+  <si>
+    <t>cl1423</t>
+  </si>
+  <si>
+    <t>cl1434</t>
+  </si>
+  <si>
+    <t>cl1483</t>
+  </si>
+  <si>
+    <t>cl1500</t>
+  </si>
+  <si>
+    <t>cl1531</t>
+  </si>
+  <si>
+    <t>cl1533</t>
+  </si>
+  <si>
+    <t>cl1540</t>
+  </si>
+  <si>
+    <t>cl1545</t>
+  </si>
+  <si>
+    <t>cl1549</t>
+  </si>
+  <si>
+    <t>cl1561</t>
+  </si>
+  <si>
+    <t>cl1562</t>
+  </si>
+  <si>
+    <t>cl1571</t>
+  </si>
+  <si>
+    <t>cl1597</t>
+  </si>
+  <si>
+    <t>cl1609</t>
+  </si>
+  <si>
+    <t>cl1611</t>
+  </si>
+  <si>
+    <t>cl1614</t>
+  </si>
+  <si>
+    <t>cl1620</t>
+  </si>
+  <si>
+    <t>cl1651</t>
+  </si>
+  <si>
+    <t>cl1662</t>
+  </si>
+  <si>
+    <t>cl1664</t>
+  </si>
+  <si>
+    <t>cl1669</t>
+  </si>
+  <si>
+    <t>cl1674</t>
+  </si>
+  <si>
+    <t>cl1680</t>
+  </si>
+  <si>
+    <t>cl1706</t>
+  </si>
+  <si>
+    <t>cl1708</t>
+  </si>
+  <si>
+    <t>cl1714</t>
+  </si>
+  <si>
+    <t>cl1722</t>
+  </si>
+  <si>
+    <t>cl1752</t>
+  </si>
+  <si>
+    <t>cl1753</t>
+  </si>
+  <si>
+    <t>cl1787</t>
+  </si>
+  <si>
+    <t>cl1789</t>
+  </si>
+  <si>
+    <t>cl1817</t>
+  </si>
+  <si>
+    <t>cl1835</t>
+  </si>
+  <si>
+    <t>cl1837</t>
+  </si>
+  <si>
+    <t>cl1860</t>
+  </si>
+  <si>
+    <t>cl1945</t>
+  </si>
+  <si>
+    <t>cl1980</t>
+  </si>
+  <si>
+    <t>cl2006</t>
+  </si>
+  <si>
+    <t>cl2031</t>
+  </si>
+  <si>
+    <t>cl2074</t>
+  </si>
+  <si>
+    <t>cl2083</t>
+  </si>
+  <si>
+    <t>cl2150</t>
+  </si>
+  <si>
+    <t>cl2154</t>
+  </si>
+  <si>
+    <t>cl2170</t>
+  </si>
+  <si>
+    <t>cl2176</t>
+  </si>
+  <si>
+    <t>cl2181</t>
+  </si>
+  <si>
+    <t>cl2191</t>
+  </si>
+  <si>
+    <t>cl2216</t>
+  </si>
+  <si>
+    <t>cl2232</t>
+  </si>
+  <si>
+    <t>cl2244</t>
+  </si>
+  <si>
+    <t>cl2267</t>
+  </si>
+  <si>
+    <t>cl2296</t>
+  </si>
+  <si>
+    <t>cl2319</t>
+  </si>
+  <si>
+    <t>cl2324</t>
+  </si>
+  <si>
+    <t>cl2325</t>
+  </si>
+  <si>
+    <t>cl2368</t>
+  </si>
+  <si>
+    <t>cl2445</t>
+  </si>
+  <si>
+    <t>cl2555</t>
+  </si>
+  <si>
+    <t>cl2697</t>
+  </si>
+  <si>
+    <t>cl2704</t>
+  </si>
+  <si>
+    <t>cl2741</t>
+  </si>
+  <si>
+    <t>cl2784</t>
+  </si>
+  <si>
+    <t>cl2835</t>
+  </si>
+  <si>
+    <t>cl2695</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1612,8 +2053,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1793,8 +2247,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1909,6 +2369,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1954,9 +2423,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2002,7 +2477,30 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2026,24 +2524,29 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G139" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G139"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I144" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:I144"/>
   <sortState ref="A2:G139">
     <sortCondition ref="A1:A139"/>
   </sortState>
-  <tableColumns count="7">
+  <tableColumns count="9">
     <tableColumn id="1" name="person_code"/>
     <tableColumn id="2" name="person_name"/>
+    <tableColumn id="9" name="client_code" dataDxfId="0"/>
     <tableColumn id="3" name="author_code"/>
     <tableColumn id="4" name="author_name"/>
     <tableColumn id="5" name="osa"/>
     <tableColumn id="6" name="cosine"/>
     <tableColumn id="7" name="correct?"/>
+    <tableColumn id="8" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2336,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:I144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2347,12 +2850,13 @@
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="56.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="56.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2360,3192 +2864,3778 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>214</v>
       </c>
       <c r="B2" t="s">
         <v>215</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" t="s">
         <v>216</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>217</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.95833333333333304</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.97979589711327097</v>
       </c>
-      <c r="G2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>206</v>
       </c>
       <c r="B3" t="s">
         <v>207</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" t="s">
         <v>208</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>209</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.96</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.987456948464703</v>
       </c>
-      <c r="G3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>298</v>
       </c>
       <c r="B4" t="s">
         <v>299</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D4" t="s">
         <v>300</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>301</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.92307692307692302</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.94736842105263097</v>
       </c>
-      <c r="G4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>322</v>
       </c>
       <c r="B5" t="s">
         <v>323</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D5" t="s">
         <v>324</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>325</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.86956521739130399</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.92547622274112396</v>
       </c>
-      <c r="G5" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>338</v>
       </c>
       <c r="B6" t="s">
         <v>339</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="D6" t="s">
         <v>340</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>341</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.86363636363636298</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.92966968020136798</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>258</v>
       </c>
       <c r="B8" t="s">
         <v>259</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="D8" t="s">
         <v>260</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>261</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.94444444444444398</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.97230558532824596</v>
       </c>
-      <c r="G8" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>286</v>
       </c>
       <c r="B10" t="s">
         <v>287</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="D10" t="s">
         <v>288</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>289</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.93220338983050799</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.95687607052637202</v>
       </c>
-      <c r="G10" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>302</v>
       </c>
       <c r="B11" t="s">
         <v>303</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D11" t="s">
         <v>304</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>305</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.92</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.94769662768678098</v>
       </c>
-      <c r="G11" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="I11" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>13</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>436</v>
       </c>
       <c r="B13" t="s">
         <v>437</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D13" t="s">
         <v>438</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>439</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.82142857142857095</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.932699059842929</v>
       </c>
-      <c r="G13" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>390</v>
       </c>
       <c r="B14" t="s">
         <v>391</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D14" t="s">
         <v>392</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>393</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.91986621100779897</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>266</v>
       </c>
       <c r="B15" t="s">
         <v>267</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D15" t="s">
         <v>268</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>269</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.939393939393939</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.97560608286114203</v>
       </c>
-      <c r="G15" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>483</v>
+      </c>
+      <c r="I15" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>270</v>
       </c>
       <c r="B16" t="s">
         <v>271</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="D16" t="s">
         <v>272</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>273</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.93548387096774199</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.97499604304356902</v>
       </c>
-      <c r="G16" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D17" t="s">
         <v>17</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>16</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D18" t="s">
         <v>368</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>369</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.85</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.93234647479690402</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D19" t="s">
         <v>422</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>423</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.82608695652173902</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.93708921705291504</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="D20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>19</v>
       </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>484</v>
+      </c>
+      <c r="I20" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>484</v>
+      </c>
+      <c r="I21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>394</v>
       </c>
       <c r="B22" t="s">
         <v>395</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="D22" t="s">
         <v>396</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>397</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.90369611411506301</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>25</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>210</v>
       </c>
       <c r="B24" t="s">
         <v>211</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="D24" t="s">
         <v>212</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>213</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>0.96</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.98019605881960603</v>
       </c>
-      <c r="G24" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>384</v>
       </c>
       <c r="B25" t="s">
         <v>385</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="D25" t="s">
         <v>386</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>387</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.92406165545054597</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
       <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>484</v>
+      </c>
+      <c r="I26" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>226</v>
       </c>
       <c r="B27" t="s">
         <v>227</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D27" t="s">
         <v>228</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>229</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>0.95652173913043403</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.97530483039669302</v>
       </c>
-      <c r="G27" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="D28" t="s">
         <v>32</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>31</v>
       </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="D29" t="s">
         <v>388</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>389</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.92212285461656895</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>440</v>
       </c>
       <c r="B30" t="s">
         <v>441</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="D30" t="s">
         <v>442</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>443</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>0.81818181818181801</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.93678391455239096</v>
       </c>
-      <c r="G30" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>458</v>
       </c>
       <c r="B31" t="s">
         <v>459</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="D31" t="s">
         <v>460</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>461</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>0.8125</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.92307692307692302</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D32" t="s">
         <v>35</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>34</v>
       </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D33" t="s">
         <v>358</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>359</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.85714285714285698</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.91578209125142795</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="D34" t="s">
         <v>456</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>457</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.81818181818181801</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.90674727000652999</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>444</v>
       </c>
       <c r="B35" t="s">
         <v>445</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D35" t="s">
         <v>446</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>447</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>0.81818181818181801</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.92307692307692302</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="D36" t="s">
         <v>38</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>37</v>
       </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>238</v>
       </c>
       <c r="B37" t="s">
         <v>239</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D37" t="s">
         <v>240</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>241</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>0.95454545454545403</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.97590007294853298</v>
       </c>
-      <c r="G37" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>39</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="D38" t="s">
         <v>41</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>40</v>
       </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="D39" t="s">
         <v>44</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>43</v>
       </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>484</v>
+      </c>
+      <c r="I39" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>45</v>
       </c>
       <c r="B40" t="s">
         <v>46</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="D40" t="s">
         <v>47</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>46</v>
       </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>242</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>243</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D42" t="s">
         <v>244</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E42" t="s">
         <v>245</v>
       </c>
-      <c r="E41">
+      <c r="F42">
         <v>0.95454545454545403</v>
       </c>
-      <c r="F41">
+      <c r="G42">
         <v>0.97499999999999898</v>
       </c>
-      <c r="G41" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="H42" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>48</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>49</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D43" t="s">
         <v>50</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E43" t="s">
         <v>49</v>
       </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>51</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="D44" t="s">
         <v>53</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E44" t="s">
         <v>52</v>
       </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>374</v>
-      </c>
-      <c r="B44" t="s">
-        <v>375</v>
-      </c>
-      <c r="C44" t="s">
-        <v>376</v>
-      </c>
-      <c r="D44" t="s">
-        <v>377</v>
-      </c>
-      <c r="E44">
-        <v>0.84615384615384603</v>
-      </c>
       <c r="F44">
-        <v>0.95553308590590902</v>
-      </c>
-      <c r="G44" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>374</v>
       </c>
       <c r="B45" t="s">
         <v>375</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D45" t="s">
+        <v>376</v>
+      </c>
+      <c r="E45" t="s">
+        <v>377</v>
+      </c>
+      <c r="F45">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="G45">
+        <v>0.95553308590590902</v>
+      </c>
+      <c r="H45" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>374</v>
+      </c>
+      <c r="B46" t="s">
+        <v>375</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D46" t="s">
         <v>378</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E46" t="s">
         <v>379</v>
       </c>
-      <c r="E45">
+      <c r="F46">
         <v>0.84615384615384603</v>
       </c>
-      <c r="F45">
+      <c r="G46">
         <v>0.91003151038658003</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H46" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>54</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D47" t="s">
         <v>56</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E47" t="s">
         <v>55</v>
       </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>57</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="D48" t="s">
         <v>59</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E48" t="s">
         <v>58</v>
       </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>60</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>61</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D49" t="s">
         <v>62</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E49" t="s">
         <v>61</v>
       </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>310</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>311</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="D50" t="s">
         <v>312</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E50" t="s">
         <v>313</v>
       </c>
-      <c r="E49">
+      <c r="F50">
         <v>0.875</v>
       </c>
-      <c r="F49">
+      <c r="G50">
         <v>0.969830011276682</v>
       </c>
-      <c r="G49" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="H50" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>63</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>64</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="D51" t="s">
         <v>65</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E51" t="s">
         <v>64</v>
       </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>364</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>365</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="D52" t="s">
         <v>366</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E52" t="s">
         <v>367</v>
       </c>
-      <c r="E51">
+      <c r="F52">
         <v>0.85294117647058798</v>
       </c>
-      <c r="F51">
+      <c r="G52">
         <v>0.97871205176259002</v>
       </c>
-      <c r="G51" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="H52" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>66</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>67</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="D53" t="s">
         <v>68</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E53" t="s">
         <v>67</v>
       </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>428</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>429</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D54" t="s">
         <v>430</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E54" t="s">
         <v>431</v>
       </c>
-      <c r="E53">
+      <c r="F54">
         <v>0.82352941176470495</v>
       </c>
-      <c r="F53">
+      <c r="G54">
         <v>0.89381935729668605</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H54" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>350</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>351</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="D55" t="s">
         <v>352</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E55" t="s">
         <v>353</v>
       </c>
-      <c r="E54">
+      <c r="F55">
         <v>0.85714285714285698</v>
       </c>
-      <c r="F54">
+      <c r="G55">
         <v>0.93658581158169396</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H55" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>262</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>263</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C56" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="D56" t="s">
         <v>264</v>
       </c>
-      <c r="D55" t="s">
+      <c r="E56" t="s">
         <v>265</v>
       </c>
-      <c r="E55">
+      <c r="F56">
         <v>0.94444444444444398</v>
       </c>
-      <c r="F55">
+      <c r="G56">
         <v>0.96167831150815397</v>
       </c>
-      <c r="G55" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="H56" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>330</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>331</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="D57" t="s">
         <v>332</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E57" t="s">
         <v>333</v>
       </c>
-      <c r="E56">
+      <c r="F57">
         <v>0.86666666666666603</v>
       </c>
-      <c r="F56">
+      <c r="G57">
         <v>0.92742603350296704</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H57" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>318</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>319</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D58" t="s">
         <v>320</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E58" t="s">
         <v>321</v>
       </c>
-      <c r="E57">
+      <c r="F58">
         <v>0.875</v>
       </c>
-      <c r="F57">
+      <c r="G58">
         <v>0.92073688437925105</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H58" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>70</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="D59" t="s">
         <v>71</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E59" t="s">
         <v>70</v>
       </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>484</v>
+      </c>
+      <c r="I59" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>294</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B60" t="s">
         <v>295</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C60" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D60" t="s">
         <v>296</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E60" t="s">
         <v>297</v>
       </c>
-      <c r="E59">
+      <c r="F60">
         <v>0.92307692307692302</v>
       </c>
-      <c r="F59">
+      <c r="G60">
         <v>0.96</v>
       </c>
-      <c r="G59" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="H60" t="s">
+        <v>484</v>
+      </c>
+      <c r="I60" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>72</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>73</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C61" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="D61" t="s">
         <v>74</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E61" t="s">
         <v>73</v>
       </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>476</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>477</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C62" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D62" t="s">
         <v>478</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E62" t="s">
         <v>479</v>
       </c>
-      <c r="E61">
+      <c r="F62">
         <v>0.80952380952380898</v>
       </c>
-      <c r="F61">
+      <c r="G62">
         <v>0.88531564076536196</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H62" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>246</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>247</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C63" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="D63" t="s">
         <v>248</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E63" t="s">
         <v>249</v>
       </c>
-      <c r="E62">
+      <c r="F63">
         <v>0.95</v>
       </c>
-      <c r="F62">
+      <c r="G63">
         <v>0.98479824644791902</v>
       </c>
-      <c r="G62" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="H63" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>246</v>
+      </c>
+      <c r="B64" t="s">
+        <v>247</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D64" t="s">
+        <v>248</v>
+      </c>
+      <c r="E64" t="s">
+        <v>249</v>
+      </c>
+      <c r="F64">
+        <v>0.95</v>
+      </c>
+      <c r="G64">
+        <v>0.98479824644791902</v>
+      </c>
+      <c r="H64" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>222</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B65" t="s">
         <v>223</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D65" t="s">
         <v>224</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E65" t="s">
         <v>225</v>
       </c>
-      <c r="E63">
+      <c r="F65">
         <v>0.95652173913043403</v>
       </c>
-      <c r="F63">
+      <c r="G65">
         <v>0.988054454279373</v>
       </c>
-      <c r="G63" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="H65" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>75</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>76</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D66" t="s">
         <v>77</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E66" t="s">
         <v>76</v>
       </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>78</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B67" t="s">
         <v>79</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C67" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D67" t="s">
         <v>80</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E67" t="s">
         <v>79</v>
       </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>483</v>
+      </c>
+      <c r="I67" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>370</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" t="s">
         <v>371</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C68" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D68" t="s">
         <v>372</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E68" t="s">
         <v>373</v>
       </c>
-      <c r="E66">
+      <c r="F68">
         <v>0.84615384615384603</v>
       </c>
-      <c r="F66">
+      <c r="G68">
         <v>0.957841488692318</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H68" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" t="s">
+        <v>371</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D69" t="s">
+        <v>372</v>
+      </c>
+      <c r="E69" t="s">
+        <v>373</v>
+      </c>
+      <c r="F69">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="G69">
+        <v>0.957841488692318</v>
+      </c>
+      <c r="H69" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>342</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B70" t="s">
         <v>343</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C70" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D70" t="s">
         <v>344</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E70" t="s">
         <v>345</v>
       </c>
-      <c r="E67">
+      <c r="F70">
         <v>0.85714285714285698</v>
       </c>
-      <c r="F67">
+      <c r="G70">
         <v>0.94868329805051299</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H70" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>81</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B71" t="s">
         <v>82</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C71" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="D71" t="s">
         <v>83</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E71" t="s">
         <v>82</v>
       </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>84</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B72" t="s">
         <v>85</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C72" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D72" t="s">
         <v>86</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E72" t="s">
         <v>85</v>
       </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>448</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B73" t="s">
         <v>449</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C73" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D73" t="s">
         <v>450</v>
       </c>
-      <c r="D70" t="s">
+      <c r="E73" t="s">
         <v>451</v>
       </c>
-      <c r="E70">
+      <c r="F73">
         <v>0.81818181818181801</v>
       </c>
-      <c r="F70">
+      <c r="G73">
         <v>0.91413792621690704</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H73" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>87</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B74" t="s">
         <v>88</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C74" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D74" t="s">
         <v>89</v>
       </c>
-      <c r="D71" t="s">
+      <c r="E74" t="s">
         <v>88</v>
       </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-      <c r="G71" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>87</v>
+      </c>
+      <c r="B75" t="s">
+        <v>88</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" t="s">
+        <v>88</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>90</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" t="s">
         <v>91</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C76" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="D76" t="s">
         <v>92</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E76" t="s">
         <v>91</v>
       </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D77" t="s">
+        <v>92</v>
+      </c>
+      <c r="E77" t="s">
+        <v>91</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>406</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B78" t="s">
         <v>407</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C78" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D78" t="s">
         <v>408</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E78" t="s">
         <v>409</v>
       </c>
-      <c r="E73">
+      <c r="F78">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F73">
+      <c r="G78">
         <v>0.89381935729668605</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H78" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>314</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B79" t="s">
         <v>315</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C79" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D79" t="s">
         <v>316</v>
       </c>
-      <c r="D74" t="s">
+      <c r="E79" t="s">
         <v>317</v>
       </c>
-      <c r="E74">
+      <c r="F79">
         <v>0.875</v>
       </c>
-      <c r="F74">
+      <c r="G79">
         <v>0.92338051687663802</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H79" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>93</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B80" t="s">
         <v>94</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C80" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D80" t="s">
         <v>95</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E80" t="s">
         <v>94</v>
       </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>380</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B81" t="s">
         <v>381</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C81" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D81" t="s">
         <v>382</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E81" t="s">
         <v>383</v>
       </c>
-      <c r="E76">
+      <c r="F81">
         <v>0.84615384615384603</v>
       </c>
-      <c r="F76">
+      <c r="G81">
         <v>0.90950859388624805</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H81" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>96</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B82" t="s">
         <v>97</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C82" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="D82" t="s">
         <v>98</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E82" t="s">
         <v>97</v>
       </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>99</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B83" t="s">
         <v>100</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C83" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="D83" t="s">
         <v>101</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E83" t="s">
         <v>100</v>
       </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>278</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B84" t="s">
         <v>279</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C84" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D84" t="s">
         <v>280</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E84" t="s">
         <v>281</v>
       </c>
-      <c r="E79">
+      <c r="F84">
         <v>0.934782608695652</v>
       </c>
-      <c r="F79">
+      <c r="G84">
         <v>0.98982739109499895</v>
       </c>
-      <c r="G79" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="H84" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>274</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B85" t="s">
         <v>275</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C85" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="D85" t="s">
         <v>276</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E85" t="s">
         <v>277</v>
       </c>
-      <c r="E80">
+      <c r="F85">
         <v>0.93548387096774199</v>
       </c>
-      <c r="F80">
+      <c r="G85">
         <v>0.97152771196783305</v>
       </c>
-      <c r="G80" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="H85" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>186</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B86" t="s">
         <v>187</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C86" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D86" t="s">
         <v>188</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E86" t="s">
         <v>189</v>
       </c>
-      <c r="E81">
+      <c r="F86">
         <v>0.97499999999999998</v>
       </c>
-      <c r="F81">
+      <c r="G86">
         <v>0.990536064687909</v>
       </c>
-      <c r="G81" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="H86" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>102</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B87" t="s">
         <v>103</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C87" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="D87" t="s">
         <v>104</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E87" t="s">
         <v>103</v>
       </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>105</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B88" t="s">
         <v>106</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C88" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D88" t="s">
         <v>107</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E88" t="s">
         <v>106</v>
       </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>306</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B89" t="s">
         <v>307</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C89" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="D89" t="s">
         <v>308</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E89" t="s">
         <v>309</v>
       </c>
-      <c r="E84">
+      <c r="F89">
         <v>0.90909090909090895</v>
       </c>
-      <c r="F84">
+      <c r="G89">
         <v>0.95662220882653903</v>
       </c>
-      <c r="G84" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="H89" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>218</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B90" t="s">
         <v>219</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C90" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D90" t="s">
         <v>220</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E90" t="s">
         <v>221</v>
       </c>
-      <c r="E85">
+      <c r="F90">
         <v>0.95652173913043403</v>
       </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>202</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B91" t="s">
         <v>203</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C91" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D91" t="s">
         <v>204</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E91" t="s">
         <v>205</v>
       </c>
-      <c r="E86">
+      <c r="F91">
         <v>0.96551724137931005</v>
       </c>
-      <c r="F86">
+      <c r="G91">
         <v>0.97961073299990697</v>
       </c>
-      <c r="G86" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="H91" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>108</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B92" t="s">
         <v>109</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C92" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D92" t="s">
         <v>110</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E92" t="s">
         <v>109</v>
       </c>
-      <c r="E87">
-        <v>1</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>418</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B93" t="s">
         <v>419</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C93" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D93" t="s">
         <v>420</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E93" t="s">
         <v>421</v>
       </c>
-      <c r="E88">
+      <c r="F93">
         <v>0.82857142857142796</v>
       </c>
-      <c r="F88">
+      <c r="G93">
         <v>0.96672819262311604</v>
       </c>
-      <c r="G88" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="H93" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>290</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B94" t="s">
         <v>291</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C94" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D94" t="s">
         <v>292</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E94" t="s">
         <v>293</v>
       </c>
-      <c r="E89">
+      <c r="F94">
         <v>0.92500000000000004</v>
       </c>
-      <c r="F89">
+      <c r="G94">
         <v>0.92466362881624398</v>
       </c>
-      <c r="G89" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="H94" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>194</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B95" t="s">
         <v>195</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C95" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D95" t="s">
         <v>196</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E95" t="s">
         <v>197</v>
       </c>
-      <c r="E90">
+      <c r="F95">
         <v>0.97058823529411697</v>
       </c>
-      <c r="F90">
+      <c r="G95">
         <v>0.987179487179487</v>
       </c>
-      <c r="G90" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="H95" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>111</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B96" t="s">
         <v>112</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C96" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D96" t="s">
         <v>113</v>
       </c>
-      <c r="D91" t="s">
+      <c r="E96" t="s">
         <v>112</v>
       </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>114</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B97" t="s">
         <v>115</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C97" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D97" t="s">
         <v>116</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E97" t="s">
         <v>115</v>
       </c>
-      <c r="E92">
-        <v>1</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>117</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B98" t="s">
         <v>118</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C98" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D98" t="s">
         <v>119</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E98" t="s">
         <v>118</v>
       </c>
-      <c r="E93">
-        <v>1</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>120</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B99" t="s">
         <v>121</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C99" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D99" t="s">
         <v>122</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E99" t="s">
         <v>121</v>
       </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>123</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B100" t="s">
         <v>124</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C100" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D100" t="s">
         <v>125</v>
       </c>
-      <c r="D95" t="s">
+      <c r="E100" t="s">
         <v>124</v>
       </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>198</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B101" t="s">
         <v>199</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C101" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D101" t="s">
         <v>200</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E101" t="s">
         <v>201</v>
       </c>
-      <c r="E96">
+      <c r="F101">
         <v>0.96551724137931005</v>
       </c>
-      <c r="F96">
+      <c r="G101">
         <v>0.98360655737704905</v>
       </c>
-      <c r="G96" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="H101" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>126</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B102" t="s">
         <v>127</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C102" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D102" t="s">
         <v>128</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E102" t="s">
         <v>127</v>
       </c>
-      <c r="E97">
-        <v>1</v>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>126</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B103" t="s">
         <v>127</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C103" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D103" t="s">
         <v>462</v>
       </c>
-      <c r="D98" t="s">
+      <c r="E103" t="s">
         <v>463</v>
       </c>
-      <c r="E98">
+      <c r="F103">
         <v>0.8125</v>
       </c>
-      <c r="F98">
+      <c r="G103">
         <v>0.90578945978331205</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H103" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>129</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B104" t="s">
         <v>130</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C104" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="D104" t="s">
         <v>131</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E104" t="s">
         <v>130</v>
       </c>
-      <c r="E99">
-        <v>1</v>
-      </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>132</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B105" t="s">
         <v>133</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C105" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D105" t="s">
         <v>134</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E105" t="s">
         <v>133</v>
       </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>484</v>
+      </c>
+      <c r="I105" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>135</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B106" t="s">
         <v>136</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C106" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D106" t="s">
         <v>137</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E106" t="s">
         <v>136</v>
       </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>424</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B107" t="s">
         <v>425</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C107" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="D107" t="s">
         <v>426</v>
       </c>
-      <c r="D102" t="s">
+      <c r="E107" t="s">
         <v>427</v>
       </c>
-      <c r="E102">
+      <c r="F107">
         <v>0.82608695652173902</v>
       </c>
-      <c r="F102">
+      <c r="G107">
         <v>0.92909200375810197</v>
       </c>
-      <c r="G102" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="H107" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>230</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B108" t="s">
         <v>231</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C108" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D108" t="s">
         <v>232</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E108" t="s">
         <v>233</v>
       </c>
-      <c r="E103">
+      <c r="F108">
         <v>0.95652173913043403</v>
       </c>
-      <c r="F103">
+      <c r="G108">
         <v>0.97530483039669302</v>
       </c>
-      <c r="G103" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="H108" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>346</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B109" t="s">
         <v>347</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C109" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="D109" t="s">
         <v>348</v>
       </c>
-      <c r="D104" t="s">
+      <c r="E109" t="s">
         <v>349</v>
       </c>
-      <c r="E104">
+      <c r="F109">
         <v>0.85714285714285698</v>
       </c>
-      <c r="F104">
+      <c r="G109">
         <v>0.94112394811431999</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H109" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>138</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B110" t="s">
         <v>139</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C110" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D110" t="s">
         <v>140</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E110" t="s">
         <v>139</v>
       </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>483</v>
+      </c>
+      <c r="I110" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>234</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B111" t="s">
         <v>235</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C111" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="D111" t="s">
         <v>236</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E111" t="s">
         <v>237</v>
       </c>
-      <c r="E106">
+      <c r="F111">
         <v>0.95652173913043403</v>
       </c>
-      <c r="F106">
+      <c r="G111">
         <v>0.96922336919511898</v>
       </c>
-      <c r="G106" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="H111" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>398</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B112" t="s">
         <v>399</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C112" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D112" t="s">
         <v>400</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E112" t="s">
         <v>401</v>
       </c>
-      <c r="E107">
+      <c r="F112">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F107">
+      <c r="G112">
         <v>0.89999999999999902</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H112" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>141</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B113" t="s">
         <v>142</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C113" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="D113" t="s">
         <v>143</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E113" t="s">
         <v>142</v>
       </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>144</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B114" t="s">
         <v>145</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C114" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D114" t="s">
         <v>146</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E114" t="s">
         <v>145</v>
       </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="F114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>484</v>
+      </c>
+      <c r="I114" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>354</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B115" t="s">
         <v>355</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C115" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D115" t="s">
         <v>356</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E115" t="s">
         <v>357</v>
       </c>
-      <c r="E110">
+      <c r="F115">
         <v>0.85714285714285698</v>
       </c>
-      <c r="F110">
+      <c r="G115">
         <v>0.91666666666666596</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H115" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>326</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B116" t="s">
         <v>327</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C116" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D116" t="s">
         <v>328</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E116" t="s">
         <v>329</v>
       </c>
-      <c r="E111">
+      <c r="F116">
         <v>0.86666666666666603</v>
       </c>
-      <c r="F111">
+      <c r="G116">
         <v>0.95553308590590902</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H116" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>464</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B117" t="s">
         <v>465</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C117" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D117" t="s">
         <v>466</v>
       </c>
-      <c r="D112" t="s">
+      <c r="E117" t="s">
         <v>467</v>
       </c>
-      <c r="E112">
+      <c r="F117">
         <v>0.8125</v>
       </c>
-      <c r="F112">
+      <c r="G117">
         <v>0.89964690212048304</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H117" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>452</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B118" t="s">
         <v>453</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C118" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D118" t="s">
         <v>454</v>
       </c>
-      <c r="D113" t="s">
+      <c r="E118" t="s">
         <v>455</v>
       </c>
-      <c r="E113">
+      <c r="F118">
         <v>0.81818181818181801</v>
       </c>
-      <c r="F113">
+      <c r="G118">
         <v>0.90916758356572902</v>
       </c>
-      <c r="G113" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="H118" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>147</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B119" t="s">
         <v>148</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C119" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D119" t="s">
         <v>149</v>
       </c>
-      <c r="D114" t="s">
+      <c r="E119" t="s">
         <v>148</v>
       </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>150</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B120" t="s">
         <v>151</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C120" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D120" t="s">
         <v>152</v>
       </c>
-      <c r="D115" t="s">
+      <c r="E120" t="s">
         <v>151</v>
       </c>
-      <c r="E115">
-        <v>1</v>
-      </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>432</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B121" t="s">
         <v>433</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C121" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D121" t="s">
         <v>434</v>
       </c>
-      <c r="D116" t="s">
+      <c r="E121" t="s">
         <v>435</v>
       </c>
-      <c r="E116">
+      <c r="F121">
         <v>0.82352941176470495</v>
       </c>
-      <c r="F116">
+      <c r="G121">
         <v>0.87098834071138498</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H121" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>334</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B122" t="s">
         <v>335</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C122" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D122" t="s">
         <v>336</v>
       </c>
-      <c r="D117" t="s">
+      <c r="E122" t="s">
         <v>337</v>
       </c>
-      <c r="E117">
+      <c r="F122">
         <v>0.86666666666666603</v>
       </c>
-      <c r="F117">
+      <c r="G122">
         <v>0.92710506930110603</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H122" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>153</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B123" t="s">
         <v>154</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C123" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="D123" t="s">
         <v>155</v>
       </c>
-      <c r="D118" t="s">
+      <c r="E123" t="s">
         <v>154</v>
       </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>414</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B124" t="s">
         <v>415</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C124" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D124" t="s">
         <v>416</v>
       </c>
-      <c r="D119" t="s">
+      <c r="E124" t="s">
         <v>417</v>
       </c>
-      <c r="E119">
+      <c r="F124">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F119">
+      <c r="G124">
         <v>0.86602540378443804</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H124" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>250</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B125" t="s">
         <v>251</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C125" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="D125" t="s">
         <v>252</v>
       </c>
-      <c r="D120" t="s">
+      <c r="E125" t="s">
         <v>253</v>
       </c>
-      <c r="E120">
+      <c r="F125">
         <v>0.95</v>
       </c>
-      <c r="F120">
+      <c r="G125">
         <v>0.98198050606196496</v>
       </c>
-      <c r="G120" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="H125" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>472</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B126" t="s">
         <v>473</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C126" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D126" t="s">
         <v>474</v>
       </c>
-      <c r="D121" t="s">
+      <c r="E126" t="s">
         <v>475</v>
       </c>
-      <c r="E121">
+      <c r="F126">
         <v>0.80952380952380898</v>
       </c>
-      <c r="F121">
+      <c r="G126">
         <v>0.90221419909536105</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H126" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>156</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B127" t="s">
         <v>157</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C127" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D127" t="s">
         <v>158</v>
       </c>
-      <c r="D122" t="s">
+      <c r="E127" t="s">
         <v>157</v>
       </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>159</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B128" t="s">
         <v>160</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C128" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D128" t="s">
         <v>161</v>
       </c>
-      <c r="D123" t="s">
+      <c r="E128" t="s">
         <v>160</v>
       </c>
-      <c r="E123">
-        <v>1</v>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>162</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B129" t="s">
         <v>163</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C129" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="D129" t="s">
         <v>164</v>
       </c>
-      <c r="D124" t="s">
+      <c r="E129" t="s">
         <v>163</v>
       </c>
-      <c r="E124">
-        <v>1</v>
-      </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>254</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B130" t="s">
         <v>255</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C130" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D130" t="s">
         <v>256</v>
       </c>
-      <c r="D125" t="s">
+      <c r="E130" t="s">
         <v>257</v>
       </c>
-      <c r="E125">
+      <c r="F130">
         <v>0.94444444444444398</v>
       </c>
-      <c r="F125">
+      <c r="G130">
         <v>0.98270762982398996</v>
       </c>
-      <c r="G125" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="H130" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>282</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B131" t="s">
         <v>283</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C131" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D131" t="s">
         <v>284</v>
       </c>
-      <c r="D126" t="s">
+      <c r="E131" t="s">
         <v>285</v>
       </c>
-      <c r="E126">
+      <c r="F131">
         <v>0.93333333333333302</v>
       </c>
-      <c r="F126">
+      <c r="G131">
         <v>0.95672974646987896</v>
       </c>
-      <c r="G126" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="H131" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>402</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B132" t="s">
         <v>403</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C132" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D132" t="s">
         <v>404</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E132" t="s">
         <v>405</v>
       </c>
-      <c r="E127">
+      <c r="F132">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F127">
+      <c r="G132">
         <v>0.89871703427291705</v>
       </c>
-      <c r="G127" t="s">
+      <c r="H132" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>165</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B133" t="s">
         <v>166</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C133" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D133" t="s">
         <v>167</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E133" t="s">
         <v>166</v>
       </c>
-      <c r="E128">
-        <v>1</v>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>190</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B134" t="s">
         <v>191</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C134" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D134" t="s">
         <v>192</v>
       </c>
-      <c r="D129" t="s">
+      <c r="E134" t="s">
         <v>193</v>
       </c>
-      <c r="E129">
+      <c r="F134">
         <v>0.97297297297297303</v>
       </c>
-      <c r="F129">
+      <c r="G134">
         <v>0.99239482178214</v>
       </c>
-      <c r="G129" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="H134" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>468</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B135" t="s">
         <v>469</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C135" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D135" t="s">
         <v>470</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E135" t="s">
         <v>471</v>
       </c>
-      <c r="E130">
+      <c r="F135">
         <v>0.81081081081080997</v>
       </c>
-      <c r="F130">
+      <c r="G135">
         <v>0.95698770316981296</v>
       </c>
-      <c r="G130" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
+      <c r="H135" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>168</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B136" t="s">
         <v>169</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C136" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D136" t="s">
         <v>170</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E136" t="s">
         <v>169</v>
       </c>
-      <c r="E131">
-        <v>1</v>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>360</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B137" t="s">
         <v>361</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C137" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="D137" t="s">
         <v>362</v>
       </c>
-      <c r="D132" t="s">
+      <c r="E137" t="s">
         <v>363</v>
       </c>
-      <c r="E132">
+      <c r="F137">
         <v>0.85714285714285698</v>
       </c>
-      <c r="F132">
+      <c r="G137">
         <v>0.88388347648318399</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H137" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>171</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B138" t="s">
         <v>172</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C138" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D138" t="s">
         <v>173</v>
       </c>
-      <c r="D133" t="s">
+      <c r="E138" t="s">
         <v>172</v>
       </c>
-      <c r="E133">
-        <v>1</v>
-      </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>1</v>
+      </c>
+      <c r="H138" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>174</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B139" t="s">
         <v>175</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C139" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D139" t="s">
         <v>176</v>
       </c>
-      <c r="D134" t="s">
+      <c r="E139" t="s">
         <v>175</v>
       </c>
-      <c r="E134">
-        <v>1</v>
-      </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="G134" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>177</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B140" t="s">
         <v>178</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C140" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D140" t="s">
         <v>179</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E140" t="s">
         <v>178</v>
       </c>
-      <c r="E135">
-        <v>1</v>
-      </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>177</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B141" t="s">
         <v>178</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C141" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="D141" t="s">
         <v>480</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E141" t="s">
         <v>481</v>
       </c>
-      <c r="E136">
+      <c r="F141">
         <v>0.80952380952380898</v>
       </c>
-      <c r="F136">
+      <c r="G141">
         <v>0.87038827977848898</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H141" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>410</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B142" t="s">
         <v>411</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C142" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D142" t="s">
         <v>412</v>
       </c>
-      <c r="D137" t="s">
+      <c r="E142" t="s">
         <v>413</v>
       </c>
-      <c r="E137">
+      <c r="F142">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F137">
+      <c r="G142">
         <v>0.88975652100260905</v>
       </c>
-      <c r="G137" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="H142" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>180</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B143" t="s">
         <v>181</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C143" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D143" t="s">
         <v>182</v>
       </c>
-      <c r="D138" t="s">
+      <c r="E143" t="s">
         <v>181</v>
       </c>
-      <c r="E138">
-        <v>1</v>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>183</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B144" t="s">
         <v>184</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C144" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D144" t="s">
         <v>185</v>
       </c>
-      <c r="D139" t="s">
+      <c r="E144" t="s">
         <v>184</v>
       </c>
-      <c r="E139">
-        <v>1</v>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139" t="s">
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144" t="s">
         <v>483</v>
       </c>
     </row>
@@ -5562,7 +6652,7 @@
           <x14:formula1>
             <xm:f>drop_down!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G139</xm:sqref>
+          <xm:sqref>H2:H144</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
